--- a/B题降雨系统和灰水系统的运作和设计/模拟日降雨量.xlsx
+++ b/B题降雨系统和灰水系统的运作和设计/模拟日降雨量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lancibe\Desktop\数模培训\B题降雨系统和灰水系统的运作和设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F29201-DAE2-4F81-93CE-B0804D60DC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D9942E2-57D2-42BA-84AF-A149A1D98AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="1044" windowWidth="14784" windowHeight="10716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="156" yWindow="948" windowWidth="14784" windowHeight="10716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -564,11 +564,11 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5">
-        <v>12.898065000000001</v>
+        <v>1.5354840000000001</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5">
-        <v>1289.806452</v>
+        <v>153.54838699999999</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
@@ -587,11 +587,11 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
-        <v>12.857143000000001</v>
+        <v>1.714286</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5">
-        <v>1285.7142859999999</v>
+        <v>171.42857100000001</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
@@ -610,11 +610,11 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
-        <v>15.282581</v>
+        <v>1.6258060000000001</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5">
-        <v>1528.258065</v>
+        <v>162.580645</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
@@ -633,11 +633,11 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
-        <v>22.538</v>
+        <v>1.91</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5">
-        <v>2253.8000000000002</v>
+        <v>191</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
@@ -656,11 +656,11 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
-        <v>26.28</v>
+        <v>1.8</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5">
-        <v>2628</v>
+        <v>180</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
@@ -679,11 +679,11 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
-        <v>25.153333</v>
+        <v>1.6333329999999999</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5">
-        <v>2515.333333</v>
+        <v>163.33333300000001</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
@@ -702,11 +702,11 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
-        <v>24.669354999999999</v>
+        <v>1.5322579999999999</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5">
-        <v>2466.9354840000001</v>
+        <v>153.22580600000001</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
@@ -725,11 +725,11 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
-        <v>25.967742000000001</v>
+        <v>1.612903</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5">
-        <v>2596.7741940000001</v>
+        <v>161.290323</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
@@ -748,11 +748,11 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
-        <v>28.856332999999999</v>
+        <v>1.9366669999999999</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
-        <v>2885.6333330000002</v>
+        <v>193.66666699999999</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
@@ -771,11 +771,11 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
-        <v>30.415483999999999</v>
+        <v>2.1419350000000001</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
-        <v>3041.5483869999998</v>
+        <v>214.19354799999999</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
@@ -794,11 +794,11 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
-        <v>23.757332999999999</v>
+        <v>2.0133329999999998</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5">
-        <v>2375.7333330000001</v>
+        <v>201.33333300000001</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
@@ -817,11 +817,11 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8">
-        <v>19.961290000000002</v>
+        <v>1.9193549999999999</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8">
-        <v>1996.1290320000001</v>
+        <v>191.935484</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
@@ -896,6 +896,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>